--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(01_タクチケ納品データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(01_タクチケ納品データ取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="133">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -959,6 +959,17 @@
   </si>
   <si>
     <t>yyyyMMddHHmmss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム日付</t>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yyyyMMdd</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1335,146 +1346,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,6 +1421,121 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1569,20 +1562,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2408,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -2418,196 +2429,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41625</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2619,66 +2630,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -4246,6 +4257,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4262,16 +4283,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4297,196 +4308,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41625</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -4498,66 +4509,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -6114,6 +6125,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6130,16 +6151,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6165,196 +6176,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41625</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6366,66 +6377,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="25" t="s">
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="29" t="s">
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-      <c r="AZ7" s="30"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -7840,16 +7851,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7866,6 +7867,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7881,206 +7892,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="46"/>
+    <col min="1" max="16384" width="2.625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="14" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="42"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="19" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="43">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41625</v>
       </c>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="15" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="14" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="14" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="14"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8092,2154 +8103,2381 @@
       </c>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="52" t="s">
+      <c r="N8" s="88"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="48" t="s">
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="55" t="s">
+      <c r="W8" s="85"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="48" t="s">
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="55" t="s">
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="57"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="92"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="59" t="s">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="59" t="s">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="62" t="s">
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="63"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="59" t="s">
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="66"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="25"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="74" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="76" t="s">
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="78"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="37"/>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="79">
+      <c r="A11" s="38">
         <f t="shared" ref="A11:A40" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="80" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="82" t="s">
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="S11" s="83"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="85" t="s">
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="80" t="s">
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="80" t="s">
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="81"/>
-      <c r="AL11" s="81"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="81"/>
-      <c r="AO11" s="82" t="s">
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="91"/>
-      <c r="AR11" s="91"/>
-      <c r="AS11" s="91"/>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="91"/>
-      <c r="AW11" s="91"/>
-      <c r="AX11" s="91"/>
-      <c r="AY11" s="91"/>
-      <c r="AZ11" s="92"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="82"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="83"/>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="79">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="82" t="s">
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="83"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="80" t="s">
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="80" t="s">
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="81"/>
-      <c r="AM12" s="81"/>
-      <c r="AN12" s="81"/>
-      <c r="AO12" s="88"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="90"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="73"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="79">
+      <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="80" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="82" t="s">
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="83"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="80" t="s">
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="81"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="80" t="s">
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
-      <c r="AN13" s="81"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="89"/>
-      <c r="AQ13" s="89"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="89"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="90"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="73"/>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="79">
+      <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="80" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="82" t="s">
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S14" s="83"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="85" t="s">
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="80" t="s">
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="80" t="s">
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="81"/>
-      <c r="AM14" s="81"/>
-      <c r="AN14" s="81"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="89"/>
-      <c r="AV14" s="89"/>
-      <c r="AW14" s="89"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="90"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="73"/>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="79">
+      <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="80" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="82" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="83"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="85" t="s">
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="80" t="s">
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="81"/>
-      <c r="AE15" s="81"/>
-      <c r="AF15" s="81"/>
-      <c r="AG15" s="80" t="s">
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH15" s="81"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="81"/>
-      <c r="AM15" s="81"/>
-      <c r="AN15" s="81"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="89"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="90"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="73"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="79">
+      <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="80" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="82" t="s">
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="83"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="85" t="s">
+      <c r="S16" s="77"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="80" t="s">
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="81"/>
-      <c r="AE16" s="81"/>
-      <c r="AF16" s="81"/>
-      <c r="AG16" s="80" t="s">
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AN16" s="81"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="89"/>
-      <c r="AQ16" s="89"/>
-      <c r="AR16" s="89"/>
-      <c r="AS16" s="89"/>
-      <c r="AT16" s="89"/>
-      <c r="AU16" s="89"/>
-      <c r="AV16" s="89"/>
-      <c r="AW16" s="89"/>
-      <c r="AX16" s="89"/>
-      <c r="AY16" s="89"/>
-      <c r="AZ16" s="90"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="73"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="79">
+      <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="80" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82" t="s">
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S17" s="83"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="85" t="s">
+      <c r="S17" s="77"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="80" t="s">
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="80" t="s">
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="88"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="89"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="89"/>
-      <c r="AZ17" s="90"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="73"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="79">
+      <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="80" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82" t="s">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S18" s="83"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="85" t="s">
+      <c r="S18" s="77"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="80" t="s">
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81"/>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="80" t="s">
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="81"/>
-      <c r="AN18" s="81"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="90"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="73"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="79">
+      <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="80" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82" t="s">
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S19" s="83"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="85" t="s">
+      <c r="S19" s="77"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="80" t="s">
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="80" t="s">
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="81"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="81"/>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="89"/>
-      <c r="AQ19" s="89"/>
-      <c r="AR19" s="89"/>
-      <c r="AS19" s="89"/>
-      <c r="AT19" s="89"/>
-      <c r="AU19" s="89"/>
-      <c r="AV19" s="89"/>
-      <c r="AW19" s="89"/>
-      <c r="AX19" s="89"/>
-      <c r="AY19" s="89"/>
-      <c r="AZ19" s="90"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="73"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="79">
+      <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="80" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="82" t="s">
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S20" s="83"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="85" t="s">
+      <c r="S20" s="77"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="80" t="s">
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="81"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="80" t="s">
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="89"/>
-      <c r="AQ20" s="89"/>
-      <c r="AR20" s="89"/>
-      <c r="AS20" s="89"/>
-      <c r="AT20" s="89"/>
-      <c r="AU20" s="89"/>
-      <c r="AV20" s="89"/>
-      <c r="AW20" s="89"/>
-      <c r="AX20" s="89"/>
-      <c r="AY20" s="89"/>
-      <c r="AZ20" s="90"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="73"/>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="79">
+      <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="80" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82" t="s">
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="83"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="85" t="s">
+      <c r="S21" s="77"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="80" t="s">
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="80" t="s">
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="89"/>
-      <c r="AQ21" s="89"/>
-      <c r="AR21" s="89"/>
-      <c r="AS21" s="89"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="89"/>
-      <c r="AV21" s="89"/>
-      <c r="AW21" s="89"/>
-      <c r="AX21" s="89"/>
-      <c r="AY21" s="89"/>
-      <c r="AZ21" s="90"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
+      <c r="AR21" s="72"/>
+      <c r="AS21" s="72"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="72"/>
+      <c r="AV21" s="72"/>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="72"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="73"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="79">
+      <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="80" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S22" s="83"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="85" t="s">
+      <c r="S22" s="77"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="80" t="s">
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="80" t="s">
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="89"/>
-      <c r="AQ22" s="89"/>
-      <c r="AR22" s="89"/>
-      <c r="AS22" s="89"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="89"/>
-      <c r="AV22" s="89"/>
-      <c r="AW22" s="89"/>
-      <c r="AX22" s="89"/>
-      <c r="AY22" s="89"/>
-      <c r="AZ22" s="90"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="72"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="73"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="79">
+      <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="80" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="82" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S23" s="83"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="85" t="s">
+      <c r="S23" s="77"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="80" t="s">
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="81"/>
-      <c r="AE23" s="81"/>
-      <c r="AF23" s="81"/>
-      <c r="AG23" s="80" t="s">
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH23" s="81"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="81"/>
-      <c r="AL23" s="81"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="89"/>
-      <c r="AQ23" s="89"/>
-      <c r="AR23" s="89"/>
-      <c r="AS23" s="89"/>
-      <c r="AT23" s="89"/>
-      <c r="AU23" s="89"/>
-      <c r="AV23" s="89"/>
-      <c r="AW23" s="89"/>
-      <c r="AX23" s="89"/>
-      <c r="AY23" s="89"/>
-      <c r="AZ23" s="90"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="73"/>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="79">
+      <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="80" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="82" t="s">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S24" s="83"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="85" t="s">
+      <c r="S24" s="77"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="80" t="s">
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH24" s="81"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="81"/>
-      <c r="AM24" s="81"/>
-      <c r="AN24" s="81"/>
-      <c r="AO24" s="88"/>
-      <c r="AP24" s="89"/>
-      <c r="AQ24" s="89"/>
-      <c r="AR24" s="89"/>
-      <c r="AS24" s="89"/>
-      <c r="AT24" s="89"/>
-      <c r="AU24" s="89"/>
-      <c r="AV24" s="89"/>
-      <c r="AW24" s="89"/>
-      <c r="AX24" s="89"/>
-      <c r="AY24" s="89"/>
-      <c r="AZ24" s="90"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP24" s="72"/>
+      <c r="AQ24" s="72"/>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72"/>
+      <c r="AU24" s="72"/>
+      <c r="AV24" s="72"/>
+      <c r="AW24" s="72"/>
+      <c r="AX24" s="72"/>
+      <c r="AY24" s="72"/>
+      <c r="AZ24" s="73"/>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="79">
+      <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="80" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="82" t="s">
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S25" s="83"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="85" t="s">
+      <c r="S25" s="77"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="80" t="s">
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="81"/>
-      <c r="AD25" s="81"/>
-      <c r="AE25" s="81"/>
-      <c r="AF25" s="81"/>
-      <c r="AG25" s="80" t="s">
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH25" s="81"/>
-      <c r="AI25" s="81"/>
-      <c r="AJ25" s="81"/>
-      <c r="AK25" s="81"/>
-      <c r="AL25" s="81"/>
-      <c r="AM25" s="81"/>
-      <c r="AN25" s="81"/>
-      <c r="AO25" s="88"/>
-      <c r="AP25" s="89"/>
-      <c r="AQ25" s="89"/>
-      <c r="AR25" s="89"/>
-      <c r="AS25" s="89"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="89"/>
-      <c r="AV25" s="89"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="90"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="73"/>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="79">
+      <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="80" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="82" t="s">
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="83"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="85" t="s">
+      <c r="S26" s="77"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="80" t="s">
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="81"/>
-      <c r="AB26" s="81"/>
-      <c r="AC26" s="81"/>
-      <c r="AD26" s="81"/>
-      <c r="AE26" s="81"/>
-      <c r="AF26" s="81"/>
-      <c r="AG26" s="80" t="s">
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH26" s="81"/>
-      <c r="AI26" s="81"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="81"/>
-      <c r="AL26" s="81"/>
-      <c r="AM26" s="81"/>
-      <c r="AN26" s="81"/>
-      <c r="AO26" s="88" t="s">
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="89"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
-      <c r="AZ26" s="90"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="73"/>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="79">
+      <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="80" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="82" t="s">
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="83"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="85" t="s">
+      <c r="S27" s="77"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="80" t="s">
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
-      <c r="AB27" s="81"/>
-      <c r="AC27" s="81"/>
-      <c r="AD27" s="81"/>
-      <c r="AE27" s="81"/>
-      <c r="AF27" s="81"/>
-      <c r="AG27" s="80" t="s">
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH27" s="81"/>
-      <c r="AI27" s="81"/>
-      <c r="AJ27" s="81"/>
-      <c r="AK27" s="81"/>
-      <c r="AL27" s="81"/>
-      <c r="AM27" s="81"/>
-      <c r="AN27" s="81"/>
-      <c r="AO27" s="88" t="s">
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="AP27" s="89"/>
-      <c r="AQ27" s="89"/>
-      <c r="AR27" s="89"/>
-      <c r="AS27" s="89"/>
-      <c r="AT27" s="89"/>
-      <c r="AU27" s="89"/>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="89"/>
-      <c r="AY27" s="89"/>
-      <c r="AZ27" s="90"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="73"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="79">
+      <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="80" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="82" t="s">
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S28" s="83"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="85" t="s">
+      <c r="S28" s="77"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="80" t="s">
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="81"/>
-      <c r="AE28" s="81"/>
-      <c r="AF28" s="81"/>
-      <c r="AG28" s="80" t="s">
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH28" s="81"/>
-      <c r="AI28" s="81"/>
-      <c r="AJ28" s="81"/>
-      <c r="AK28" s="81"/>
-      <c r="AL28" s="81"/>
-      <c r="AM28" s="81"/>
-      <c r="AN28" s="81"/>
-      <c r="AO28" s="88" t="s">
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="AP28" s="89"/>
-      <c r="AQ28" s="89"/>
-      <c r="AR28" s="89"/>
-      <c r="AS28" s="89"/>
-      <c r="AT28" s="89"/>
-      <c r="AU28" s="89"/>
-      <c r="AV28" s="89"/>
-      <c r="AW28" s="89"/>
-      <c r="AX28" s="89"/>
-      <c r="AY28" s="89"/>
-      <c r="AZ28" s="90"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="73"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="79">
+      <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="80" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
-      <c r="R29" s="82" t="s">
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S29" s="83"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="85" t="s">
+      <c r="S29" s="77"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="80" t="s">
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="Z29" s="81"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="81"/>
-      <c r="AC29" s="81"/>
-      <c r="AD29" s="81"/>
-      <c r="AE29" s="81"/>
-      <c r="AF29" s="81"/>
-      <c r="AG29" s="80" t="s">
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH29" s="81"/>
-      <c r="AI29" s="81"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="81"/>
-      <c r="AL29" s="81"/>
-      <c r="AM29" s="81"/>
-      <c r="AN29" s="81"/>
-      <c r="AO29" s="88" t="s">
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="AP29" s="89"/>
-      <c r="AQ29" s="89"/>
-      <c r="AR29" s="89"/>
-      <c r="AS29" s="89"/>
-      <c r="AT29" s="89"/>
-      <c r="AU29" s="89"/>
-      <c r="AV29" s="89"/>
-      <c r="AW29" s="89"/>
-      <c r="AX29" s="89"/>
-      <c r="AY29" s="89"/>
-      <c r="AZ29" s="90"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="73"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="79">
+      <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="80"/>
-      <c r="Z30" s="81"/>
-      <c r="AA30" s="81"/>
-      <c r="AB30" s="81"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="80"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="81"/>
-      <c r="AL30" s="81"/>
-      <c r="AM30" s="81"/>
-      <c r="AN30" s="81"/>
-      <c r="AO30" s="88"/>
-      <c r="AP30" s="89"/>
-      <c r="AQ30" s="89"/>
-      <c r="AR30" s="89"/>
-      <c r="AS30" s="89"/>
-      <c r="AT30" s="89"/>
-      <c r="AU30" s="89"/>
-      <c r="AV30" s="89"/>
-      <c r="AW30" s="89"/>
-      <c r="AX30" s="89"/>
-      <c r="AY30" s="89"/>
-      <c r="AZ30" s="90"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="75"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="73"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="79">
+      <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="81"/>
-      <c r="AI31" s="81"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="81"/>
-      <c r="AL31" s="81"/>
-      <c r="AM31" s="81"/>
-      <c r="AN31" s="81"/>
-      <c r="AO31" s="88"/>
-      <c r="AP31" s="89"/>
-      <c r="AQ31" s="89"/>
-      <c r="AR31" s="89"/>
-      <c r="AS31" s="89"/>
-      <c r="AT31" s="89"/>
-      <c r="AU31" s="89"/>
-      <c r="AV31" s="89"/>
-      <c r="AW31" s="89"/>
-      <c r="AX31" s="89"/>
-      <c r="AY31" s="89"/>
-      <c r="AZ31" s="90"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="73"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="79">
+      <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="80"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="81"/>
-      <c r="AF32" s="81"/>
-      <c r="AG32" s="80"/>
-      <c r="AH32" s="81"/>
-      <c r="AI32" s="81"/>
-      <c r="AJ32" s="81"/>
-      <c r="AK32" s="81"/>
-      <c r="AL32" s="81"/>
-      <c r="AM32" s="81"/>
-      <c r="AN32" s="81"/>
-      <c r="AO32" s="88"/>
-      <c r="AP32" s="89"/>
-      <c r="AQ32" s="89"/>
-      <c r="AR32" s="89"/>
-      <c r="AS32" s="89"/>
-      <c r="AT32" s="89"/>
-      <c r="AU32" s="89"/>
-      <c r="AV32" s="89"/>
-      <c r="AW32" s="89"/>
-      <c r="AX32" s="89"/>
-      <c r="AY32" s="89"/>
-      <c r="AZ32" s="90"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="73"/>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="79">
+      <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="81"/>
-      <c r="AC33" s="81"/>
-      <c r="AD33" s="81"/>
-      <c r="AE33" s="81"/>
-      <c r="AF33" s="81"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="81"/>
-      <c r="AI33" s="81"/>
-      <c r="AJ33" s="81"/>
-      <c r="AK33" s="81"/>
-      <c r="AL33" s="81"/>
-      <c r="AM33" s="81"/>
-      <c r="AN33" s="81"/>
-      <c r="AO33" s="88"/>
-      <c r="AP33" s="89"/>
-      <c r="AQ33" s="89"/>
-      <c r="AR33" s="89"/>
-      <c r="AS33" s="89"/>
-      <c r="AT33" s="89"/>
-      <c r="AU33" s="89"/>
-      <c r="AV33" s="89"/>
-      <c r="AW33" s="89"/>
-      <c r="AX33" s="89"/>
-      <c r="AY33" s="89"/>
-      <c r="AZ33" s="90"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="73"/>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="79">
+      <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="81"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="81"/>
-      <c r="AD34" s="81"/>
-      <c r="AE34" s="81"/>
-      <c r="AF34" s="81"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="81"/>
-      <c r="AJ34" s="81"/>
-      <c r="AK34" s="81"/>
-      <c r="AL34" s="81"/>
-      <c r="AM34" s="81"/>
-      <c r="AN34" s="81"/>
-      <c r="AO34" s="88"/>
-      <c r="AP34" s="89"/>
-      <c r="AQ34" s="89"/>
-      <c r="AR34" s="89"/>
-      <c r="AS34" s="89"/>
-      <c r="AT34" s="89"/>
-      <c r="AU34" s="89"/>
-      <c r="AV34" s="89"/>
-      <c r="AW34" s="89"/>
-      <c r="AX34" s="89"/>
-      <c r="AY34" s="89"/>
-      <c r="AZ34" s="90"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="73"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="79">
+      <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="84"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="81"/>
-      <c r="AA35" s="81"/>
-      <c r="AB35" s="81"/>
-      <c r="AC35" s="81"/>
-      <c r="AD35" s="81"/>
-      <c r="AE35" s="81"/>
-      <c r="AF35" s="81"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="81"/>
-      <c r="AI35" s="81"/>
-      <c r="AJ35" s="81"/>
-      <c r="AK35" s="81"/>
-      <c r="AL35" s="81"/>
-      <c r="AM35" s="81"/>
-      <c r="AN35" s="81"/>
-      <c r="AO35" s="88"/>
-      <c r="AP35" s="89"/>
-      <c r="AQ35" s="89"/>
-      <c r="AR35" s="89"/>
-      <c r="AS35" s="89"/>
-      <c r="AT35" s="89"/>
-      <c r="AU35" s="89"/>
-      <c r="AV35" s="89"/>
-      <c r="AW35" s="89"/>
-      <c r="AX35" s="89"/>
-      <c r="AY35" s="89"/>
-      <c r="AZ35" s="90"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="73"/>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="79">
+      <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="84"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="86"/>
-      <c r="X36" s="87"/>
-      <c r="Y36" s="80"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="81"/>
-      <c r="AG36" s="80"/>
-      <c r="AH36" s="81"/>
-      <c r="AI36" s="81"/>
-      <c r="AJ36" s="81"/>
-      <c r="AK36" s="81"/>
-      <c r="AL36" s="81"/>
-      <c r="AM36" s="81"/>
-      <c r="AN36" s="81"/>
-      <c r="AO36" s="88"/>
-      <c r="AP36" s="89"/>
-      <c r="AQ36" s="89"/>
-      <c r="AR36" s="89"/>
-      <c r="AS36" s="89"/>
-      <c r="AT36" s="89"/>
-      <c r="AU36" s="89"/>
-      <c r="AV36" s="89"/>
-      <c r="AW36" s="89"/>
-      <c r="AX36" s="89"/>
-      <c r="AY36" s="89"/>
-      <c r="AZ36" s="90"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="75"/>
+      <c r="AL36" s="75"/>
+      <c r="AM36" s="75"/>
+      <c r="AN36" s="75"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="72"/>
+      <c r="AQ36" s="72"/>
+      <c r="AR36" s="72"/>
+      <c r="AS36" s="72"/>
+      <c r="AT36" s="72"/>
+      <c r="AU36" s="72"/>
+      <c r="AV36" s="72"/>
+      <c r="AW36" s="72"/>
+      <c r="AX36" s="72"/>
+      <c r="AY36" s="72"/>
+      <c r="AZ36" s="73"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="79">
+      <c r="A37" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="84"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="87"/>
-      <c r="Y37" s="80"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="81"/>
-      <c r="AF37" s="81"/>
-      <c r="AG37" s="80"/>
-      <c r="AH37" s="81"/>
-      <c r="AI37" s="81"/>
-      <c r="AJ37" s="81"/>
-      <c r="AK37" s="81"/>
-      <c r="AL37" s="81"/>
-      <c r="AM37" s="81"/>
-      <c r="AN37" s="81"/>
-      <c r="AO37" s="88"/>
-      <c r="AP37" s="89"/>
-      <c r="AQ37" s="89"/>
-      <c r="AR37" s="89"/>
-      <c r="AS37" s="89"/>
-      <c r="AT37" s="89"/>
-      <c r="AU37" s="89"/>
-      <c r="AV37" s="89"/>
-      <c r="AW37" s="89"/>
-      <c r="AX37" s="89"/>
-      <c r="AY37" s="89"/>
-      <c r="AZ37" s="90"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="75"/>
+      <c r="AE37" s="75"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="75"/>
+      <c r="AL37" s="75"/>
+      <c r="AM37" s="75"/>
+      <c r="AN37" s="75"/>
+      <c r="AO37" s="71"/>
+      <c r="AP37" s="72"/>
+      <c r="AQ37" s="72"/>
+      <c r="AR37" s="72"/>
+      <c r="AS37" s="72"/>
+      <c r="AT37" s="72"/>
+      <c r="AU37" s="72"/>
+      <c r="AV37" s="72"/>
+      <c r="AW37" s="72"/>
+      <c r="AX37" s="72"/>
+      <c r="AY37" s="72"/>
+      <c r="AZ37" s="73"/>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="79">
+      <c r="A38" s="38">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="84"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="86"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="87"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="81"/>
-      <c r="AB38" s="81"/>
-      <c r="AC38" s="81"/>
-      <c r="AD38" s="81"/>
-      <c r="AE38" s="81"/>
-      <c r="AF38" s="81"/>
-      <c r="AG38" s="80"/>
-      <c r="AH38" s="81"/>
-      <c r="AI38" s="81"/>
-      <c r="AJ38" s="81"/>
-      <c r="AK38" s="81"/>
-      <c r="AL38" s="81"/>
-      <c r="AM38" s="81"/>
-      <c r="AN38" s="81"/>
-      <c r="AO38" s="88"/>
-      <c r="AP38" s="89"/>
-      <c r="AQ38" s="89"/>
-      <c r="AR38" s="89"/>
-      <c r="AS38" s="89"/>
-      <c r="AT38" s="89"/>
-      <c r="AU38" s="89"/>
-      <c r="AV38" s="89"/>
-      <c r="AW38" s="89"/>
-      <c r="AX38" s="89"/>
-      <c r="AY38" s="89"/>
-      <c r="AZ38" s="90"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="81"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="75"/>
+      <c r="AD38" s="75"/>
+      <c r="AE38" s="75"/>
+      <c r="AF38" s="75"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="75"/>
+      <c r="AI38" s="75"/>
+      <c r="AJ38" s="75"/>
+      <c r="AK38" s="75"/>
+      <c r="AL38" s="75"/>
+      <c r="AM38" s="75"/>
+      <c r="AN38" s="75"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="72"/>
+      <c r="AQ38" s="72"/>
+      <c r="AR38" s="72"/>
+      <c r="AS38" s="72"/>
+      <c r="AT38" s="72"/>
+      <c r="AU38" s="72"/>
+      <c r="AV38" s="72"/>
+      <c r="AW38" s="72"/>
+      <c r="AX38" s="72"/>
+      <c r="AY38" s="72"/>
+      <c r="AZ38" s="73"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="79">
+      <c r="A39" s="38">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="84"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="86"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="80"/>
-      <c r="Z39" s="81"/>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="81"/>
-      <c r="AF39" s="81"/>
-      <c r="AG39" s="80"/>
-      <c r="AH39" s="81"/>
-      <c r="AI39" s="81"/>
-      <c r="AJ39" s="81"/>
-      <c r="AK39" s="81"/>
-      <c r="AL39" s="81"/>
-      <c r="AM39" s="81"/>
-      <c r="AN39" s="81"/>
-      <c r="AO39" s="88"/>
-      <c r="AP39" s="89"/>
-      <c r="AQ39" s="89"/>
-      <c r="AR39" s="89"/>
-      <c r="AS39" s="89"/>
-      <c r="AT39" s="89"/>
-      <c r="AU39" s="89"/>
-      <c r="AV39" s="89"/>
-      <c r="AW39" s="89"/>
-      <c r="AX39" s="89"/>
-      <c r="AY39" s="89"/>
-      <c r="AZ39" s="90"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="76"/>
+      <c r="S39" s="77"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="74"/>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="75"/>
+      <c r="AL39" s="75"/>
+      <c r="AM39" s="75"/>
+      <c r="AN39" s="75"/>
+      <c r="AO39" s="71"/>
+      <c r="AP39" s="72"/>
+      <c r="AQ39" s="72"/>
+      <c r="AR39" s="72"/>
+      <c r="AS39" s="72"/>
+      <c r="AT39" s="72"/>
+      <c r="AU39" s="72"/>
+      <c r="AV39" s="72"/>
+      <c r="AW39" s="72"/>
+      <c r="AX39" s="72"/>
+      <c r="AY39" s="72"/>
+      <c r="AZ39" s="73"/>
     </row>
     <row r="40" spans="1:52">
-      <c r="A40" s="79">
+      <c r="A40" s="38">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="83"/>
-      <c r="T40" s="84"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="86"/>
-      <c r="W40" s="86"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="81"/>
-      <c r="AA40" s="81"/>
-      <c r="AB40" s="81"/>
-      <c r="AC40" s="81"/>
-      <c r="AD40" s="81"/>
-      <c r="AE40" s="81"/>
-      <c r="AF40" s="81"/>
-      <c r="AG40" s="80"/>
-      <c r="AH40" s="81"/>
-      <c r="AI40" s="81"/>
-      <c r="AJ40" s="81"/>
-      <c r="AK40" s="81"/>
-      <c r="AL40" s="81"/>
-      <c r="AM40" s="81"/>
-      <c r="AN40" s="81"/>
-      <c r="AO40" s="88"/>
-      <c r="AP40" s="89"/>
-      <c r="AQ40" s="89"/>
-      <c r="AR40" s="89"/>
-      <c r="AS40" s="89"/>
-      <c r="AT40" s="89"/>
-      <c r="AU40" s="89"/>
-      <c r="AV40" s="89"/>
-      <c r="AW40" s="89"/>
-      <c r="AX40" s="89"/>
-      <c r="AY40" s="89"/>
-      <c r="AZ40" s="90"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="81"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="75"/>
+      <c r="AE40" s="75"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="74"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="75"/>
+      <c r="AL40" s="75"/>
+      <c r="AM40" s="75"/>
+      <c r="AN40" s="75"/>
+      <c r="AO40" s="71"/>
+      <c r="AP40" s="72"/>
+      <c r="AQ40" s="72"/>
+      <c r="AR40" s="72"/>
+      <c r="AS40" s="72"/>
+      <c r="AT40" s="72"/>
+      <c r="AU40" s="72"/>
+      <c r="AV40" s="72"/>
+      <c r="AW40" s="72"/>
+      <c r="AX40" s="72"/>
+      <c r="AY40" s="72"/>
+      <c r="AZ40" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
+    <mergeCell ref="AO37:AZ37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="Y38:AF38"/>
+    <mergeCell ref="AG38:AN38"/>
+    <mergeCell ref="AO38:AZ38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="Y37:AF37"/>
+    <mergeCell ref="AG37:AN37"/>
     <mergeCell ref="AO39:AZ39"/>
     <mergeCell ref="B40:I40"/>
     <mergeCell ref="J40:Q40"/>
@@ -10254,231 +10492,6 @@
     <mergeCell ref="U39:X39"/>
     <mergeCell ref="Y39:AF39"/>
     <mergeCell ref="AG39:AN39"/>
-    <mergeCell ref="AO37:AZ37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Y38:AF38"/>
-    <mergeCell ref="AG38:AN38"/>
-    <mergeCell ref="AO38:AZ38"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:AF37"/>
-    <mergeCell ref="AG37:AN37"/>
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(01_タクチケ納品データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(01_タクチケ納品データ取込).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -970,6 +970,111 @@
   </si>
   <si>
     <t>yyyyMMdd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"0"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面で指定されたタクシー会社(コード)と、CSVデータの券種の頭2桁が</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンシュ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一致しない場合はエラーとする。</t>
+    <rPh sb="0" eb="2">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※但し、京交信の場合は券種の頭にタクシー会社コードは無いので</t>
+    <rPh sb="1" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンシュ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック対象外とする。</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクシー会社がTKまたはNGの
+場合、券種の頭にタクシー会社
+コードを付加する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンシュ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>フカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1303,7 +1408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1421,6 +1526,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,33 +1623,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1501,72 +1631,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,6 +1658,50 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2419,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
@@ -2429,196 +2537,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41625</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2630,66 +2738,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -4257,16 +4365,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -4283,6 +4381,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4308,196 +4416,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41625</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -4509,66 +4617,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -6125,16 +6233,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6151,6 +6249,16 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6167,7 +6275,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -6176,196 +6284,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41625</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6377,66 +6485,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="39" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43" t="s">
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="43"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="43"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="43"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="43"/>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="58"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -6836,11 +6944,11 @@
       <c r="J17" s="3"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="13" t="s">
-        <v>59</v>
-      </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>134</v>
+      </c>
+      <c r="P17" t="s">
+        <v>135</v>
       </c>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -6879,18 +6987,9 @@
       <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="P18" t="s">
+        <v>136</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -6931,16 +7030,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -6985,7 +7077,9 @@
       <c r="N20" s="2"/>
       <c r="O20" s="11"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -7032,7 +7126,12 @@
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
       <c r="L21" s="4"/>
-      <c r="N21" s="11"/>
+      <c r="M21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -7072,8 +7171,18 @@
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
       <c r="L22" s="2"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -7113,7 +7222,15 @@
       <c r="K23" s="1"/>
       <c r="L23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -7851,6 +7968,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7867,16 +7994,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7890,208 +8007,209 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ40"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="14"/>
+    <col min="1" max="1" width="3.375" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="54" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="58" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="63"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="70"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="68" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="68" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="58" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="64">
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="50">
         <v>41625</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="54" t="s">
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="67" t="s">
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="54" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="54" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="54" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="40"/>
+      <c r="AV3" s="40"/>
+      <c r="AW3" s="40"/>
+      <c r="AX3" s="40"/>
+      <c r="AY3" s="40"/>
+      <c r="AZ3" s="40"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8112,72 +8230,72 @@
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="87" t="s">
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="84" t="s">
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="85"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="90" t="s">
+      <c r="W8" s="72"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="84" t="s">
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="90" t="s">
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="91"/>
-      <c r="AZ8" s="92"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="78"/>
+      <c r="AU8" s="78"/>
+      <c r="AV8" s="78"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="79"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="17" t="s">
@@ -8307,1952 +8425,1923 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="38">
-        <f t="shared" ref="A11:A40" si="0">ROW()-10</f>
+        <f t="shared" ref="A11:A36" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="74" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="76" t="s">
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="S11" s="77"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="79" t="s">
+      <c r="S11" s="85"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="74" t="s">
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="74" t="s">
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="76" t="s">
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="AP11" s="82"/>
-      <c r="AQ11" s="82"/>
-      <c r="AR11" s="82"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="82"/>
-      <c r="AY11" s="82"/>
-      <c r="AZ11" s="83"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="81"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="81"/>
+      <c r="AT11" s="81"/>
+      <c r="AU11" s="81"/>
+      <c r="AV11" s="81"/>
+      <c r="AW11" s="81"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="81"/>
+      <c r="AZ11" s="82"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="74" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76" t="s">
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="77"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="74" t="s">
+      <c r="S12" s="85"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="74" t="s">
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="73"/>
-    </row>
-    <row r="13" spans="1:52">
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="91"/>
+      <c r="AQ12" s="91"/>
+      <c r="AR12" s="91"/>
+      <c r="AS12" s="91"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="91"/>
+      <c r="AV12" s="91"/>
+      <c r="AW12" s="91"/>
+      <c r="AX12" s="91"/>
+      <c r="AY12" s="91"/>
+      <c r="AZ12" s="92"/>
+    </row>
+    <row r="13" spans="1:52" ht="39.75" customHeight="1">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="74" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="76" t="s">
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="77"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="74" t="s">
+      <c r="S13" s="85"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="74" t="s">
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="75"/>
-      <c r="AL13" s="75"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="71"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="73"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91"/>
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="92"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="74" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76" t="s">
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="79" t="s">
+      <c r="S14" s="85"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="74" t="s">
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="74" t="s">
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="75"/>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="71"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="73"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="90"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
+      <c r="AZ14" s="92"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="74" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="76" t="s">
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="77"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="79" t="s">
+      <c r="S15" s="85"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="74" t="s">
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="74" t="s">
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="75"/>
-      <c r="AL15" s="75"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="73"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
+      <c r="AK15" s="84"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="90"/>
+      <c r="AP15" s="91"/>
+      <c r="AQ15" s="91"/>
+      <c r="AR15" s="91"/>
+      <c r="AS15" s="91"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="91"/>
+      <c r="AV15" s="91"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="91"/>
+      <c r="AY15" s="91"/>
+      <c r="AZ15" s="92"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="74" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76" t="s">
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="77"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="79" t="s">
+      <c r="S16" s="85"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="74" t="s">
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="74" t="s">
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="75"/>
-      <c r="AL16" s="75"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="73"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="90"/>
+      <c r="AP16" s="91"/>
+      <c r="AQ16" s="91"/>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="92"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="74" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76" t="s">
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S17" s="77"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="79" t="s">
+      <c r="S17" s="85"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="74" t="s">
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="74" t="s">
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="72"/>
-      <c r="AQ17" s="72"/>
-      <c r="AR17" s="72"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="72"/>
-      <c r="AU17" s="72"/>
-      <c r="AV17" s="72"/>
-      <c r="AW17" s="72"/>
-      <c r="AX17" s="72"/>
-      <c r="AY17" s="72"/>
-      <c r="AZ17" s="73"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="90"/>
+      <c r="AP17" s="91"/>
+      <c r="AQ17" s="91"/>
+      <c r="AR17" s="91"/>
+      <c r="AS17" s="91"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="91"/>
+      <c r="AV17" s="91"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="91"/>
+      <c r="AY17" s="91"/>
+      <c r="AZ17" s="92"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="74" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76" t="s">
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S18" s="77"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="79" t="s">
+      <c r="S18" s="85"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="74" t="s">
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="74" t="s">
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="75"/>
-      <c r="AL18" s="75"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="71"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
-      <c r="AZ18" s="73"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="90"/>
+      <c r="AP18" s="91"/>
+      <c r="AQ18" s="91"/>
+      <c r="AR18" s="91"/>
+      <c r="AS18" s="91"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="91"/>
+      <c r="AV18" s="91"/>
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="91"/>
+      <c r="AY18" s="91"/>
+      <c r="AZ18" s="92"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="74" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76" t="s">
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S19" s="77"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="79" t="s">
+      <c r="S19" s="85"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="74" t="s">
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="75"/>
-      <c r="AB19" s="75"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="74" t="s">
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="75"/>
-      <c r="AJ19" s="75"/>
-      <c r="AK19" s="75"/>
-      <c r="AL19" s="75"/>
-      <c r="AM19" s="75"/>
-      <c r="AN19" s="75"/>
-      <c r="AO19" s="71"/>
-      <c r="AP19" s="72"/>
-      <c r="AQ19" s="72"/>
-      <c r="AR19" s="72"/>
-      <c r="AS19" s="72"/>
-      <c r="AT19" s="72"/>
-      <c r="AU19" s="72"/>
-      <c r="AV19" s="72"/>
-      <c r="AW19" s="72"/>
-      <c r="AX19" s="72"/>
-      <c r="AY19" s="72"/>
-      <c r="AZ19" s="73"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="84"/>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="84"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="91"/>
+      <c r="AQ19" s="91"/>
+      <c r="AR19" s="91"/>
+      <c r="AS19" s="91"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="91"/>
+      <c r="AV19" s="91"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="91"/>
+      <c r="AY19" s="91"/>
+      <c r="AZ19" s="92"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="74" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76" t="s">
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="79" t="s">
+      <c r="S20" s="85"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="74" t="s">
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="74" t="s">
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="75"/>
-      <c r="AL20" s="75"/>
-      <c r="AM20" s="75"/>
-      <c r="AN20" s="75"/>
-      <c r="AO20" s="71"/>
-      <c r="AP20" s="72"/>
-      <c r="AQ20" s="72"/>
-      <c r="AR20" s="72"/>
-      <c r="AS20" s="72"/>
-      <c r="AT20" s="72"/>
-      <c r="AU20" s="72"/>
-      <c r="AV20" s="72"/>
-      <c r="AW20" s="72"/>
-      <c r="AX20" s="72"/>
-      <c r="AY20" s="72"/>
-      <c r="AZ20" s="73"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="90"/>
+      <c r="AP20" s="91"/>
+      <c r="AQ20" s="91"/>
+      <c r="AR20" s="91"/>
+      <c r="AS20" s="91"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="91"/>
+      <c r="AV20" s="91"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="91"/>
+      <c r="AY20" s="91"/>
+      <c r="AZ20" s="92"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="74" t="s">
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="76" t="s">
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="77"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="79" t="s">
+      <c r="S21" s="85"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="74" t="s">
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="74" t="s">
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="75"/>
-      <c r="AL21" s="75"/>
-      <c r="AM21" s="75"/>
-      <c r="AN21" s="75"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="72"/>
-      <c r="AQ21" s="72"/>
-      <c r="AR21" s="72"/>
-      <c r="AS21" s="72"/>
-      <c r="AT21" s="72"/>
-      <c r="AU21" s="72"/>
-      <c r="AV21" s="72"/>
-      <c r="AW21" s="72"/>
-      <c r="AX21" s="72"/>
-      <c r="AY21" s="72"/>
-      <c r="AZ21" s="73"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="91"/>
+      <c r="AQ21" s="91"/>
+      <c r="AR21" s="91"/>
+      <c r="AS21" s="91"/>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="91"/>
+      <c r="AV21" s="91"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="91"/>
+      <c r="AY21" s="91"/>
+      <c r="AZ21" s="92"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="74" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76" t="s">
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S22" s="77"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="79" t="s">
+      <c r="S22" s="85"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="74" t="s">
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="74" t="s">
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="75"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="75"/>
-      <c r="AO22" s="71"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="73"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="84"/>
+      <c r="AL22" s="84"/>
+      <c r="AM22" s="84"/>
+      <c r="AN22" s="84"/>
+      <c r="AO22" s="90"/>
+      <c r="AP22" s="91"/>
+      <c r="AQ22" s="91"/>
+      <c r="AR22" s="91"/>
+      <c r="AS22" s="91"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="91"/>
+      <c r="AV22" s="91"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="91"/>
+      <c r="AY22" s="91"/>
+      <c r="AZ22" s="92"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="74" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76" t="s">
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S23" s="77"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="79" t="s">
+      <c r="S23" s="85"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="74" t="s">
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="75"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="74" t="s">
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="75"/>
-      <c r="AO23" s="71"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="72"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="72"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="73"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP23" s="91"/>
+      <c r="AQ23" s="91"/>
+      <c r="AR23" s="91"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="91"/>
+      <c r="AU23" s="91"/>
+      <c r="AV23" s="91"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="91"/>
+      <c r="AY23" s="91"/>
+      <c r="AZ23" s="92"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="74" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="76" t="s">
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S24" s="77"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="79" t="s">
+      <c r="S24" s="85"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="74" t="s">
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="75"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="74" t="s">
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="75"/>
-      <c r="AJ24" s="75"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="75"/>
-      <c r="AM24" s="75"/>
-      <c r="AN24" s="75"/>
-      <c r="AO24" s="71" t="s">
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="84"/>
+      <c r="AL24" s="84"/>
+      <c r="AM24" s="84"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="90" t="s">
         <v>132</v>
       </c>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="72"/>
-      <c r="AS24" s="72"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="72"/>
-      <c r="AY24" s="72"/>
-      <c r="AZ24" s="73"/>
+      <c r="AP24" s="91"/>
+      <c r="AQ24" s="91"/>
+      <c r="AR24" s="91"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="91"/>
+      <c r="AX24" s="91"/>
+      <c r="AY24" s="91"/>
+      <c r="AZ24" s="92"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="74" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="76" t="s">
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="79" t="s">
+      <c r="S25" s="85"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="74" t="s">
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="74" t="s">
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="75"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="75"/>
-      <c r="AO25" s="71"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="72"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="73"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="84"/>
+      <c r="AO25" s="90"/>
+      <c r="AP25" s="91"/>
+      <c r="AQ25" s="91"/>
+      <c r="AR25" s="91"/>
+      <c r="AS25" s="91"/>
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="91"/>
+      <c r="AV25" s="91"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="91"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="92"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="74" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="76" t="s">
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="77"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="79" t="s">
+      <c r="S26" s="85"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="81"/>
-      <c r="Y26" s="74" t="s">
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="75"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="75"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="74" t="s">
+      <c r="Z26" s="84"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+      <c r="AE26" s="84"/>
+      <c r="AF26" s="84"/>
+      <c r="AG26" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="75"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="71" t="s">
+      <c r="AH26" s="84"/>
+      <c r="AI26" s="84"/>
+      <c r="AJ26" s="84"/>
+      <c r="AK26" s="84"/>
+      <c r="AL26" s="84"/>
+      <c r="AM26" s="84"/>
+      <c r="AN26" s="84"/>
+      <c r="AO26" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="AP26" s="72"/>
-      <c r="AQ26" s="72"/>
-      <c r="AR26" s="72"/>
-      <c r="AS26" s="72"/>
-      <c r="AT26" s="72"/>
-      <c r="AU26" s="72"/>
-      <c r="AV26" s="72"/>
-      <c r="AW26" s="72"/>
-      <c r="AX26" s="72"/>
-      <c r="AY26" s="72"/>
-      <c r="AZ26" s="73"/>
+      <c r="AP26" s="91"/>
+      <c r="AQ26" s="91"/>
+      <c r="AR26" s="91"/>
+      <c r="AS26" s="91"/>
+      <c r="AT26" s="91"/>
+      <c r="AU26" s="91"/>
+      <c r="AV26" s="91"/>
+      <c r="AW26" s="91"/>
+      <c r="AX26" s="91"/>
+      <c r="AY26" s="91"/>
+      <c r="AZ26" s="92"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="74" t="s">
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="76" t="s">
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="77"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="79" t="s">
+      <c r="S27" s="85"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V27" s="80"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="74" t="s">
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="75"/>
-      <c r="AB27" s="75"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="75"/>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="74" t="s">
+      <c r="Z27" s="84"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="75"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="71" t="s">
+      <c r="AH27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
+      <c r="AL27" s="84"/>
+      <c r="AM27" s="84"/>
+      <c r="AN27" s="84"/>
+      <c r="AO27" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="72"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="73"/>
+      <c r="AP27" s="91"/>
+      <c r="AQ27" s="91"/>
+      <c r="AR27" s="91"/>
+      <c r="AS27" s="91"/>
+      <c r="AT27" s="91"/>
+      <c r="AU27" s="91"/>
+      <c r="AV27" s="91"/>
+      <c r="AW27" s="91"/>
+      <c r="AX27" s="91"/>
+      <c r="AY27" s="91"/>
+      <c r="AZ27" s="92"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="74" t="s">
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="76" t="s">
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S28" s="77"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="79" t="s">
+      <c r="S28" s="85"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="74" t="s">
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="74" t="s">
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="84"/>
+      <c r="AG28" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="75"/>
-      <c r="AL28" s="75"/>
-      <c r="AM28" s="75"/>
-      <c r="AN28" s="75"/>
-      <c r="AO28" s="71" t="s">
+      <c r="AH28" s="84"/>
+      <c r="AI28" s="84"/>
+      <c r="AJ28" s="84"/>
+      <c r="AK28" s="84"/>
+      <c r="AL28" s="84"/>
+      <c r="AM28" s="84"/>
+      <c r="AN28" s="84"/>
+      <c r="AO28" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="72"/>
-      <c r="AS28" s="72"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="72"/>
-      <c r="AY28" s="72"/>
-      <c r="AZ28" s="73"/>
+      <c r="AP28" s="91"/>
+      <c r="AQ28" s="91"/>
+      <c r="AR28" s="91"/>
+      <c r="AS28" s="91"/>
+      <c r="AT28" s="91"/>
+      <c r="AU28" s="91"/>
+      <c r="AV28" s="91"/>
+      <c r="AW28" s="91"/>
+      <c r="AX28" s="91"/>
+      <c r="AY28" s="91"/>
+      <c r="AZ28" s="92"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="74" t="s">
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="76" t="s">
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="S29" s="77"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="79" t="s">
+      <c r="S29" s="85"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="74" t="s">
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="75"/>
-      <c r="AB29" s="75"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="75"/>
-      <c r="AE29" s="75"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="74" t="s">
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="75"/>
-      <c r="AL29" s="75"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="71" t="s">
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="AP29" s="72"/>
-      <c r="AQ29" s="72"/>
-      <c r="AR29" s="72"/>
-      <c r="AS29" s="72"/>
-      <c r="AT29" s="72"/>
-      <c r="AU29" s="72"/>
-      <c r="AV29" s="72"/>
-      <c r="AW29" s="72"/>
-      <c r="AX29" s="72"/>
-      <c r="AY29" s="72"/>
-      <c r="AZ29" s="73"/>
+      <c r="AP29" s="91"/>
+      <c r="AQ29" s="91"/>
+      <c r="AR29" s="91"/>
+      <c r="AS29" s="91"/>
+      <c r="AT29" s="91"/>
+      <c r="AU29" s="91"/>
+      <c r="AV29" s="91"/>
+      <c r="AW29" s="91"/>
+      <c r="AX29" s="91"/>
+      <c r="AY29" s="91"/>
+      <c r="AZ29" s="92"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="81"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="75"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="75"/>
-      <c r="AE30" s="75"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="75"/>
-      <c r="AL30" s="75"/>
-      <c r="AM30" s="75"/>
-      <c r="AN30" s="75"/>
-      <c r="AO30" s="71"/>
-      <c r="AP30" s="72"/>
-      <c r="AQ30" s="72"/>
-      <c r="AR30" s="72"/>
-      <c r="AS30" s="72"/>
-      <c r="AT30" s="72"/>
-      <c r="AU30" s="72"/>
-      <c r="AV30" s="72"/>
-      <c r="AW30" s="72"/>
-      <c r="AX30" s="72"/>
-      <c r="AY30" s="72"/>
-      <c r="AZ30" s="73"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="84"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="84"/>
+      <c r="AG30" s="83"/>
+      <c r="AH30" s="84"/>
+      <c r="AI30" s="84"/>
+      <c r="AJ30" s="84"/>
+      <c r="AK30" s="84"/>
+      <c r="AL30" s="84"/>
+      <c r="AM30" s="84"/>
+      <c r="AN30" s="84"/>
+      <c r="AO30" s="90"/>
+      <c r="AP30" s="91"/>
+      <c r="AQ30" s="91"/>
+      <c r="AR30" s="91"/>
+      <c r="AS30" s="91"/>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="91"/>
+      <c r="AZ30" s="92"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="75"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="74"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="75"/>
-      <c r="AL31" s="75"/>
-      <c r="AM31" s="75"/>
-      <c r="AN31" s="75"/>
-      <c r="AO31" s="71"/>
-      <c r="AP31" s="72"/>
-      <c r="AQ31" s="72"/>
-      <c r="AR31" s="72"/>
-      <c r="AS31" s="72"/>
-      <c r="AT31" s="72"/>
-      <c r="AU31" s="72"/>
-      <c r="AV31" s="72"/>
-      <c r="AW31" s="72"/>
-      <c r="AX31" s="72"/>
-      <c r="AY31" s="72"/>
-      <c r="AZ31" s="73"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="83"/>
+      <c r="Z31" s="84"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="84"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
+      <c r="AG31" s="83"/>
+      <c r="AH31" s="84"/>
+      <c r="AI31" s="84"/>
+      <c r="AJ31" s="84"/>
+      <c r="AK31" s="84"/>
+      <c r="AL31" s="84"/>
+      <c r="AM31" s="84"/>
+      <c r="AN31" s="84"/>
+      <c r="AO31" s="90"/>
+      <c r="AP31" s="91"/>
+      <c r="AQ31" s="91"/>
+      <c r="AR31" s="91"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="92"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="75"/>
-      <c r="AE32" s="75"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="75"/>
-      <c r="AL32" s="75"/>
-      <c r="AM32" s="75"/>
-      <c r="AN32" s="75"/>
-      <c r="AO32" s="71"/>
-      <c r="AP32" s="72"/>
-      <c r="AQ32" s="72"/>
-      <c r="AR32" s="72"/>
-      <c r="AS32" s="72"/>
-      <c r="AT32" s="72"/>
-      <c r="AU32" s="72"/>
-      <c r="AV32" s="72"/>
-      <c r="AW32" s="72"/>
-      <c r="AX32" s="72"/>
-      <c r="AY32" s="72"/>
-      <c r="AZ32" s="73"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="84"/>
+      <c r="AA32" s="84"/>
+      <c r="AB32" s="84"/>
+      <c r="AC32" s="84"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="84"/>
+      <c r="AF32" s="84"/>
+      <c r="AG32" s="83"/>
+      <c r="AH32" s="84"/>
+      <c r="AI32" s="84"/>
+      <c r="AJ32" s="84"/>
+      <c r="AK32" s="84"/>
+      <c r="AL32" s="84"/>
+      <c r="AM32" s="84"/>
+      <c r="AN32" s="84"/>
+      <c r="AO32" s="90"/>
+      <c r="AP32" s="91"/>
+      <c r="AQ32" s="91"/>
+      <c r="AR32" s="91"/>
+      <c r="AS32" s="91"/>
+      <c r="AT32" s="91"/>
+      <c r="AU32" s="91"/>
+      <c r="AV32" s="91"/>
+      <c r="AW32" s="91"/>
+      <c r="AX32" s="91"/>
+      <c r="AY32" s="91"/>
+      <c r="AZ32" s="92"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="75"/>
-      <c r="AE33" s="75"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="74"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="75"/>
-      <c r="AL33" s="75"/>
-      <c r="AM33" s="75"/>
-      <c r="AN33" s="75"/>
-      <c r="AO33" s="71"/>
-      <c r="AP33" s="72"/>
-      <c r="AQ33" s="72"/>
-      <c r="AR33" s="72"/>
-      <c r="AS33" s="72"/>
-      <c r="AT33" s="72"/>
-      <c r="AU33" s="72"/>
-      <c r="AV33" s="72"/>
-      <c r="AW33" s="72"/>
-      <c r="AX33" s="72"/>
-      <c r="AY33" s="72"/>
-      <c r="AZ33" s="73"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="84"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="84"/>
+      <c r="AC33" s="84"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="84"/>
+      <c r="AG33" s="83"/>
+      <c r="AH33" s="84"/>
+      <c r="AI33" s="84"/>
+      <c r="AJ33" s="84"/>
+      <c r="AK33" s="84"/>
+      <c r="AL33" s="84"/>
+      <c r="AM33" s="84"/>
+      <c r="AN33" s="84"/>
+      <c r="AO33" s="90"/>
+      <c r="AP33" s="91"/>
+      <c r="AQ33" s="91"/>
+      <c r="AR33" s="91"/>
+      <c r="AS33" s="91"/>
+      <c r="AT33" s="91"/>
+      <c r="AU33" s="91"/>
+      <c r="AV33" s="91"/>
+      <c r="AW33" s="91"/>
+      <c r="AX33" s="91"/>
+      <c r="AY33" s="91"/>
+      <c r="AZ33" s="92"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="81"/>
-      <c r="Y34" s="74"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="75"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="74"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="75"/>
-      <c r="AL34" s="75"/>
-      <c r="AM34" s="75"/>
-      <c r="AN34" s="75"/>
-      <c r="AO34" s="71"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="73"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="86"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="84"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="84"/>
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="84"/>
+      <c r="AG34" s="83"/>
+      <c r="AH34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="AJ34" s="84"/>
+      <c r="AK34" s="84"/>
+      <c r="AL34" s="84"/>
+      <c r="AM34" s="84"/>
+      <c r="AN34" s="84"/>
+      <c r="AO34" s="90"/>
+      <c r="AP34" s="91"/>
+      <c r="AQ34" s="91"/>
+      <c r="AR34" s="91"/>
+      <c r="AS34" s="91"/>
+      <c r="AT34" s="91"/>
+      <c r="AU34" s="91"/>
+      <c r="AV34" s="91"/>
+      <c r="AW34" s="91"/>
+      <c r="AX34" s="91"/>
+      <c r="AY34" s="91"/>
+      <c r="AZ34" s="92"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="77"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="75"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="75"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="71"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="72"/>
-      <c r="AZ35" s="73"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="89"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="84"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="83"/>
+      <c r="AH35" s="84"/>
+      <c r="AI35" s="84"/>
+      <c r="AJ35" s="84"/>
+      <c r="AK35" s="84"/>
+      <c r="AL35" s="84"/>
+      <c r="AM35" s="84"/>
+      <c r="AN35" s="84"/>
+      <c r="AO35" s="90"/>
+      <c r="AP35" s="91"/>
+      <c r="AQ35" s="91"/>
+      <c r="AR35" s="91"/>
+      <c r="AS35" s="91"/>
+      <c r="AT35" s="91"/>
+      <c r="AU35" s="91"/>
+      <c r="AV35" s="91"/>
+      <c r="AW35" s="91"/>
+      <c r="AX35" s="91"/>
+      <c r="AY35" s="91"/>
+      <c r="AZ35" s="92"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="77"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="80"/>
-      <c r="W36" s="80"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="75"/>
-      <c r="AE36" s="75"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="75"/>
-      <c r="AI36" s="75"/>
-      <c r="AJ36" s="75"/>
-      <c r="AK36" s="75"/>
-      <c r="AL36" s="75"/>
-      <c r="AM36" s="75"/>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="72"/>
-      <c r="AQ36" s="72"/>
-      <c r="AR36" s="72"/>
-      <c r="AS36" s="72"/>
-      <c r="AT36" s="72"/>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="72"/>
-      <c r="AW36" s="72"/>
-      <c r="AX36" s="72"/>
-      <c r="AY36" s="72"/>
-      <c r="AZ36" s="73"/>
-    </row>
-    <row r="37" spans="1:52">
-      <c r="A37" s="38">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="77"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="75"/>
-      <c r="AE37" s="75"/>
-      <c r="AF37" s="75"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="75"/>
-      <c r="AI37" s="75"/>
-      <c r="AJ37" s="75"/>
-      <c r="AK37" s="75"/>
-      <c r="AL37" s="75"/>
-      <c r="AM37" s="75"/>
-      <c r="AN37" s="75"/>
-      <c r="AO37" s="71"/>
-      <c r="AP37" s="72"/>
-      <c r="AQ37" s="72"/>
-      <c r="AR37" s="72"/>
-      <c r="AS37" s="72"/>
-      <c r="AT37" s="72"/>
-      <c r="AU37" s="72"/>
-      <c r="AV37" s="72"/>
-      <c r="AW37" s="72"/>
-      <c r="AX37" s="72"/>
-      <c r="AY37" s="72"/>
-      <c r="AZ37" s="73"/>
-    </row>
-    <row r="38" spans="1:52">
-      <c r="A38" s="38">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="80"/>
-      <c r="W38" s="80"/>
-      <c r="X38" s="81"/>
-      <c r="Y38" s="74"/>
-      <c r="Z38" s="75"/>
-      <c r="AA38" s="75"/>
-      <c r="AB38" s="75"/>
-      <c r="AC38" s="75"/>
-      <c r="AD38" s="75"/>
-      <c r="AE38" s="75"/>
-      <c r="AF38" s="75"/>
-      <c r="AG38" s="74"/>
-      <c r="AH38" s="75"/>
-      <c r="AI38" s="75"/>
-      <c r="AJ38" s="75"/>
-      <c r="AK38" s="75"/>
-      <c r="AL38" s="75"/>
-      <c r="AM38" s="75"/>
-      <c r="AN38" s="75"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="72"/>
-      <c r="AQ38" s="72"/>
-      <c r="AR38" s="72"/>
-      <c r="AS38" s="72"/>
-      <c r="AT38" s="72"/>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="72"/>
-      <c r="AW38" s="72"/>
-      <c r="AX38" s="72"/>
-      <c r="AY38" s="72"/>
-      <c r="AZ38" s="73"/>
-    </row>
-    <row r="39" spans="1:52">
-      <c r="A39" s="38">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="77"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="80"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="74"/>
-      <c r="Z39" s="75"/>
-      <c r="AA39" s="75"/>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="75"/>
-      <c r="AD39" s="75"/>
-      <c r="AE39" s="75"/>
-      <c r="AF39" s="75"/>
-      <c r="AG39" s="74"/>
-      <c r="AH39" s="75"/>
-      <c r="AI39" s="75"/>
-      <c r="AJ39" s="75"/>
-      <c r="AK39" s="75"/>
-      <c r="AL39" s="75"/>
-      <c r="AM39" s="75"/>
-      <c r="AN39" s="75"/>
-      <c r="AO39" s="71"/>
-      <c r="AP39" s="72"/>
-      <c r="AQ39" s="72"/>
-      <c r="AR39" s="72"/>
-      <c r="AS39" s="72"/>
-      <c r="AT39" s="72"/>
-      <c r="AU39" s="72"/>
-      <c r="AV39" s="72"/>
-      <c r="AW39" s="72"/>
-      <c r="AX39" s="72"/>
-      <c r="AY39" s="72"/>
-      <c r="AZ39" s="73"/>
-    </row>
-    <row r="40" spans="1:52">
-      <c r="A40" s="38">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="77"/>
-      <c r="T40" s="78"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="80"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="81"/>
-      <c r="Y40" s="74"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="75"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="75"/>
-      <c r="AE40" s="75"/>
-      <c r="AF40" s="75"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="75"/>
-      <c r="AJ40" s="75"/>
-      <c r="AK40" s="75"/>
-      <c r="AL40" s="75"/>
-      <c r="AM40" s="75"/>
-      <c r="AN40" s="75"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="72"/>
-      <c r="AQ40" s="72"/>
-      <c r="AR40" s="72"/>
-      <c r="AS40" s="72"/>
-      <c r="AT40" s="72"/>
-      <c r="AU40" s="72"/>
-      <c r="AV40" s="72"/>
-      <c r="AW40" s="72"/>
-      <c r="AX40" s="72"/>
-      <c r="AY40" s="72"/>
-      <c r="AZ40" s="73"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="84"/>
+      <c r="AA36" s="84"/>
+      <c r="AB36" s="84"/>
+      <c r="AC36" s="84"/>
+      <c r="AD36" s="84"/>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="84"/>
+      <c r="AG36" s="83"/>
+      <c r="AH36" s="84"/>
+      <c r="AI36" s="84"/>
+      <c r="AJ36" s="84"/>
+      <c r="AK36" s="84"/>
+      <c r="AL36" s="84"/>
+      <c r="AM36" s="84"/>
+      <c r="AN36" s="84"/>
+      <c r="AO36" s="90"/>
+      <c r="AP36" s="91"/>
+      <c r="AQ36" s="91"/>
+      <c r="AR36" s="91"/>
+      <c r="AS36" s="91"/>
+      <c r="AT36" s="91"/>
+      <c r="AU36" s="91"/>
+      <c r="AV36" s="91"/>
+      <c r="AW36" s="91"/>
+      <c r="AX36" s="91"/>
+      <c r="AY36" s="91"/>
+      <c r="AZ36" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="239">
+  <mergeCells count="211">
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="AR2:AT2"/>
@@ -10269,229 +10358,6 @@
     <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AR3:AT3"/>
     <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="A1:H3"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:AI1"/>
-    <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="AO37:AZ37"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="Y38:AF38"/>
-    <mergeCell ref="AG38:AN38"/>
-    <mergeCell ref="AO38:AZ38"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="Y37:AF37"/>
-    <mergeCell ref="AG37:AN37"/>
-    <mergeCell ref="AO39:AZ39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="Y40:AF40"/>
-    <mergeCell ref="AG40:AN40"/>
-    <mergeCell ref="AO40:AZ40"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="Y39:AF39"/>
-    <mergeCell ref="AG39:AN39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(01_タクチケ納品データ取込).xlsx
+++ b/60 タクチケ管理システム/20 開発資料/03.詳細設計/プロセス概要(01_タクチケ納品データ取込).xlsx
@@ -7,23 +7,25 @@
     <workbookView xWindow="180" yWindow="15" windowWidth="19440" windowHeight="11100"/>
   </bookViews>
   <sheets>
-    <sheet name="IPO_1" sheetId="6" r:id="rId1"/>
-    <sheet name="IPO_2" sheetId="7" r:id="rId2"/>
-    <sheet name="IPO_3" sheetId="1" r:id="rId3"/>
-    <sheet name="出力項目一覧_1-a" sheetId="10" r:id="rId4"/>
+    <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
+    <sheet name="IPO_1" sheetId="6" r:id="rId2"/>
+    <sheet name="IPO_2" sheetId="7" r:id="rId3"/>
+    <sheet name="IPO_3" sheetId="1" r:id="rId4"/>
+    <sheet name="出力項目一覧_1-a" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">IPO_1!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">IPO_2!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">IPO_3!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'出力項目一覧_1-a'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">IPO_1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">IPO_2!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">IPO_3!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'出力項目一覧_1-a'!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">変更履歴!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="145">
   <si>
     <t>章番</t>
     <rPh sb="0" eb="1">
@@ -966,10 +968,6 @@
     <rPh sb="4" eb="6">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>yyyyMMdd</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1077,12 +1075,93 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>14/10/17 取込は実績データ取込日とする為、納品データ取込では設定しない。</t>
+    <rPh sb="9" eb="11">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2014/10/17  </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タクチケ発行テーブル【取込日】は、実績データ取込日とする為</t>
+    <rPh sb="11" eb="13">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品データ取込処理では設定しない。</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>201/12/17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ ゴシック"/>
@@ -1147,6 +1226,21 @@
     <font>
       <sz val="9"/>
       <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1408,7 +1502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1526,58 +1620,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1623,6 +1665,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1631,6 +1700,75 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1659,48 +1797,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2528,7 +2635,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="AU4" sqref="AU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -2537,196 +2644,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
-        <v>41625</v>
-      </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64">
+        <v>41929</v>
+      </c>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -2738,66 +2849,62 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -2926,13 +3033,13 @@
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
       <c r="L11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
+      <c r="Q11" t="s">
+        <v>141</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -2983,7 +3090,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -3031,12 +3140,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>35</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="N13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -4365,32 +4469,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
     <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:AI1"/>
     <mergeCell ref="AJ1:AZ1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -4398,7 +4502,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4416,196 +4519,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41625</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -4617,66 +4720,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -4805,17 +4908,13 @@
       <c r="J11" s="3"/>
       <c r="K11" s="1"/>
       <c r="L11" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -4863,17 +4962,16 @@
       <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" t="s">
-        <v>29</v>
-      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -4915,13 +5013,13 @@
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -4968,6 +5066,14 @@
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -5014,12 +5120,13 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>49</v>
-      </c>
+      <c r="L15" s="4"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -5066,9 +5173,21 @@
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="M16" t="s">
-        <v>50</v>
-      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -5104,11 +5223,9 @@
       <c r="J17" s="3"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
-      <c r="M17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -5156,11 +5273,9 @@
       <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="N18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -5208,6 +5323,8 @@
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -5254,12 +5371,8 @@
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" t="s">
-        <v>41</v>
-      </c>
+      <c r="L20" s="4"/>
+      <c r="N20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -5306,16 +5419,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="L21" s="4"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
@@ -5357,13 +5466,9 @@
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
-      <c r="L22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" t="s">
-        <v>64</v>
-      </c>
-      <c r="S22" s="2"/>
+      <c r="L22" s="4"/>
+      <c r="N22" s="2"/>
+      <c r="Q22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -5410,7 +5515,10 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="1"/>
-      <c r="S23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -5457,13 +5565,9 @@
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" t="s">
-        <v>42</v>
-      </c>
+      <c r="L24" s="2"/>
       <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -5515,12 +5619,14 @@
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
-      <c r="M25" t="s">
-        <v>43</v>
-      </c>
+      <c r="M25" s="4"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -5566,10 +5672,14 @@
       <c r="J26" s="3"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
-      <c r="M26" t="s">
-        <v>44</v>
-      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -5615,9 +5725,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
-      <c r="M27" t="s">
-        <v>45</v>
-      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -5666,9 +5778,11 @@
       <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
-      <c r="M28" t="s">
-        <v>46</v>
-      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -6233,6 +6347,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -6249,16 +6373,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -6275,7 +6389,7 @@
   <dimension ref="A1:AZ38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -6284,196 +6398,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41625</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -6485,66 +6599,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="53" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="58"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1">
       <c r="A9" s="8" t="s">
@@ -6676,7 +6790,7 @@
         <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -6731,12 +6845,11 @@
       <c r="J12" s="3"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s">
-        <v>52</v>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -6785,9 +6898,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="1"/>
       <c r="L13" s="4"/>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s">
-        <v>53</v>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -6835,13 +6950,23 @@
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="4"/>
-      <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" t="s">
-        <v>54</v>
-      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -6871,13 +6996,29 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="4"/>
-      <c r="O15" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" t="s">
-        <v>56</v>
-      </c>
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -6907,13 +7048,14 @@
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="4"/>
-      <c r="O16" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" t="s">
-        <v>58</v>
-      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -6944,12 +7086,21 @@
       <c r="J17" s="3"/>
       <c r="K17" s="1"/>
       <c r="L17" s="4"/>
-      <c r="O17" t="s">
-        <v>134</v>
-      </c>
-      <c r="P17" t="s">
-        <v>135</v>
-      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -6987,9 +7138,18 @@
       <c r="J18" s="3"/>
       <c r="K18" s="1"/>
       <c r="L18" s="4"/>
-      <c r="P18" t="s">
-        <v>136</v>
-      </c>
+      <c r="M18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -7030,9 +7190,13 @@
       <c r="J19" s="3"/>
       <c r="K19" s="1"/>
       <c r="L19" s="4"/>
-      <c r="P19" t="s">
-        <v>137</v>
-      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -7072,18 +7236,17 @@
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
-        <v>138</v>
+      <c r="L20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -7125,13 +7288,19 @@
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" t="s">
-        <v>60</v>
-      </c>
+      <c r="L21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -7170,12 +7339,13 @@
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="L22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -7183,6 +7353,8 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -7220,17 +7392,16 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -7268,9 +7439,25 @@
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="2"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="L24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -7310,7 +7497,18 @@
       <c r="J25" s="3"/>
       <c r="K25" s="1"/>
       <c r="L25" s="2"/>
-      <c r="N25" s="11"/>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -7350,7 +7548,16 @@
       <c r="J26" s="3"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2"/>
-      <c r="N26" s="11"/>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -7390,8 +7597,15 @@
       <c r="J27" s="3"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="11"/>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -7434,6 +7648,16 @@
       <c r="J28" s="3"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -7475,6 +7699,13 @@
       <c r="J29" s="3"/>
       <c r="K29" s="1"/>
       <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -7522,6 +7753,12 @@
       <c r="J30" s="3"/>
       <c r="K30" s="1"/>
       <c r="L30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -7569,6 +7806,11 @@
       <c r="J31" s="3"/>
       <c r="K31" s="1"/>
       <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -7616,6 +7858,10 @@
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -7663,9 +7909,8 @@
       <c r="J33" s="3"/>
       <c r="K33" s="1"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="11"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -7715,9 +7960,8 @@
       <c r="J34" s="3"/>
       <c r="K34" s="1"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -7767,6 +8011,9 @@
       <c r="J35" s="3"/>
       <c r="K35" s="1"/>
       <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -8007,10 +8254,1745 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="15" max="15" width="2.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
+    </row>
+    <row r="2" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
+        <v>41625</v>
+      </c>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+    </row>
+    <row r="3" spans="1:52" ht="13.5" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="14.25" thickBot="1"/>
+    <row r="7" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="44"/>
+    </row>
+    <row r="9" spans="1:52" ht="14.25" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="10"/>
+    </row>
+    <row r="10" spans="1:52" ht="14.25" thickTop="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="3"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="3"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="3"/>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="4"/>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="3"/>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="4"/>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="3"/>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="O15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="3"/>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="3"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="4"/>
+      <c r="O17" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="3"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="4"/>
+      <c r="P18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="3"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="4"/>
+      <c r="P19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="3"/>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="3"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="3"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="3"/>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="3"/>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="3"/>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="N25" s="11"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="3"/>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="N26" s="11"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="3"/>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="11"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="3"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="3"/>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="3"/>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="3"/>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="3"/>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="3"/>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="11"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="3"/>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="3"/>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="3"/>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="3"/>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="3"/>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="S7:Z7"/>
+    <mergeCell ref="AA7:AZ7"/>
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:AI1"/>
+    <mergeCell ref="AJ1:AZ1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:I30"/>
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8020,196 +10002,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="39" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="69"/>
-      <c r="AV1" s="69"/>
-      <c r="AW1" s="69"/>
-      <c r="AX1" s="69"/>
-      <c r="AY1" s="69"/>
-      <c r="AZ1" s="70"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62"/>
+      <c r="AZ1" s="63"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="44" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="39" t="s">
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="50">
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="64">
         <v>41625</v>
       </c>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="39" t="s">
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="40" t="s">
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="39" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="39" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="39" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="39" t="s">
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" t="s">
@@ -8230,72 +10212,72 @@
     </row>
     <row r="7" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="8" spans="1:52" ht="14.25" thickBot="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="74" t="s">
+      <c r="M8" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="74" t="s">
+      <c r="N8" s="89"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="71" t="s">
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="72"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="77" t="s">
+      <c r="W8" s="86"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="71" t="s">
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="77" t="s">
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="78"/>
-      <c r="AU8" s="78"/>
-      <c r="AV8" s="78"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="79"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="17" t="s">
@@ -8428,1907 +10410,1730 @@
         <f t="shared" ref="A11:A36" si="0">ROW()-10</f>
         <v>1</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="83" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="80" t="s">
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="S11" s="85"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="87" t="s">
+      <c r="S11" s="77"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="83" t="s">
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="83" t="s">
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="80" t="s">
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="81"/>
-      <c r="AZ11" s="82"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="84"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="83" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="80" t="s">
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="83" t="s">
+      <c r="S12" s="77"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="83" t="s">
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="91"/>
-      <c r="AQ12" s="91"/>
-      <c r="AR12" s="91"/>
-      <c r="AS12" s="91"/>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="91"/>
-      <c r="AV12" s="91"/>
-      <c r="AW12" s="91"/>
-      <c r="AX12" s="91"/>
-      <c r="AY12" s="91"/>
-      <c r="AZ12" s="92"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="73"/>
     </row>
     <row r="13" spans="1:52" ht="39.75" customHeight="1">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="83" t="s">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="80" t="s">
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="S13" s="85"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="83" t="s">
+      <c r="S13" s="77"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="83" t="s">
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP13" s="91"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="91"/>
-      <c r="AS13" s="91"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="91"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="91"/>
-      <c r="AX13" s="91"/>
-      <c r="AY13" s="91"/>
-      <c r="AZ13" s="92"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="75"/>
+      <c r="AN13" s="75"/>
+      <c r="AO13" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="73"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="83" t="s">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="80" t="s">
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="87" t="s">
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="83" t="s">
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="83" t="s">
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="91"/>
-      <c r="AQ14" s="91"/>
-      <c r="AR14" s="91"/>
-      <c r="AS14" s="91"/>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="91"/>
-      <c r="AV14" s="91"/>
-      <c r="AW14" s="91"/>
-      <c r="AX14" s="91"/>
-      <c r="AY14" s="91"/>
-      <c r="AZ14" s="92"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="73"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="83" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="80" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S15" s="85"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="87" t="s">
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="83" t="s">
+      <c r="V15" s="80"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="83" t="s">
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="90"/>
-      <c r="AP15" s="91"/>
-      <c r="AQ15" s="91"/>
-      <c r="AR15" s="91"/>
-      <c r="AS15" s="91"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="91"/>
-      <c r="AV15" s="91"/>
-      <c r="AW15" s="91"/>
-      <c r="AX15" s="91"/>
-      <c r="AY15" s="91"/>
-      <c r="AZ15" s="92"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="72"/>
+      <c r="AQ15" s="72"/>
+      <c r="AR15" s="72"/>
+      <c r="AS15" s="72"/>
+      <c r="AT15" s="72"/>
+      <c r="AU15" s="72"/>
+      <c r="AV15" s="72"/>
+      <c r="AW15" s="72"/>
+      <c r="AX15" s="72"/>
+      <c r="AY15" s="72"/>
+      <c r="AZ15" s="73"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="83" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="80" t="s">
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S16" s="85"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="87" t="s">
+      <c r="S16" s="77"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="83" t="s">
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="83" t="s">
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="90"/>
-      <c r="AP16" s="91"/>
-      <c r="AQ16" s="91"/>
-      <c r="AR16" s="91"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91"/>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="92"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="73"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="83" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="80" t="s">
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S17" s="85"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="87" t="s">
+      <c r="S17" s="77"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="83" t="s">
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="83" t="s">
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="84"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="90"/>
-      <c r="AP17" s="91"/>
-      <c r="AQ17" s="91"/>
-      <c r="AR17" s="91"/>
-      <c r="AS17" s="91"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="91"/>
-      <c r="AV17" s="91"/>
-      <c r="AW17" s="91"/>
-      <c r="AX17" s="91"/>
-      <c r="AY17" s="91"/>
-      <c r="AZ17" s="92"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="75"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="73"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="83" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="80" t="s">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S18" s="85"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="87" t="s">
+      <c r="S18" s="77"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="83" t="s">
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="83" t="s">
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="84"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="90"/>
-      <c r="AP18" s="91"/>
-      <c r="AQ18" s="91"/>
-      <c r="AR18" s="91"/>
-      <c r="AS18" s="91"/>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="91"/>
-      <c r="AV18" s="91"/>
-      <c r="AW18" s="91"/>
-      <c r="AX18" s="91"/>
-      <c r="AY18" s="91"/>
-      <c r="AZ18" s="92"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="73"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="83" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="80" t="s">
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S19" s="85"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87" t="s">
+      <c r="S19" s="77"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="83" t="s">
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="84"/>
-      <c r="AE19" s="84"/>
-      <c r="AF19" s="84"/>
-      <c r="AG19" s="83" t="s">
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="75"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="84"/>
-      <c r="AK19" s="84"/>
-      <c r="AL19" s="84"/>
-      <c r="AM19" s="84"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="91"/>
-      <c r="AR19" s="91"/>
-      <c r="AS19" s="91"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="91"/>
-      <c r="AW19" s="91"/>
-      <c r="AX19" s="91"/>
-      <c r="AY19" s="91"/>
-      <c r="AZ19" s="92"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="75"/>
+      <c r="AJ19" s="75"/>
+      <c r="AK19" s="75"/>
+      <c r="AL19" s="75"/>
+      <c r="AM19" s="75"/>
+      <c r="AN19" s="75"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="73"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="83" t="s">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="80" t="s">
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S20" s="85"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="87" t="s">
+      <c r="S20" s="77"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="83" t="s">
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="83" t="s">
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="84"/>
-      <c r="AL20" s="84"/>
-      <c r="AM20" s="84"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="90"/>
-      <c r="AP20" s="91"/>
-      <c r="AQ20" s="91"/>
-      <c r="AR20" s="91"/>
-      <c r="AS20" s="91"/>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="91"/>
-      <c r="AV20" s="91"/>
-      <c r="AW20" s="91"/>
-      <c r="AX20" s="91"/>
-      <c r="AY20" s="91"/>
-      <c r="AZ20" s="92"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="75"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="73"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="83" t="s">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="80" t="s">
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="85"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="87" t="s">
+      <c r="S21" s="77"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="83" t="s">
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="83" t="s">
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="84"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="90"/>
-      <c r="AP21" s="91"/>
-      <c r="AQ21" s="91"/>
-      <c r="AR21" s="91"/>
-      <c r="AS21" s="91"/>
-      <c r="AT21" s="91"/>
-      <c r="AU21" s="91"/>
-      <c r="AV21" s="91"/>
-      <c r="AW21" s="91"/>
-      <c r="AX21" s="91"/>
-      <c r="AY21" s="91"/>
-      <c r="AZ21" s="92"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="72"/>
+      <c r="AR21" s="72"/>
+      <c r="AS21" s="72"/>
+      <c r="AT21" s="72"/>
+      <c r="AU21" s="72"/>
+      <c r="AV21" s="72"/>
+      <c r="AW21" s="72"/>
+      <c r="AX21" s="72"/>
+      <c r="AY21" s="72"/>
+      <c r="AZ21" s="73"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="83" t="s">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="80" t="s">
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="87" t="s">
+      <c r="S22" s="77"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="83" t="s">
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="83" t="s">
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="84"/>
-      <c r="AM22" s="84"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="90"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-      <c r="AR22" s="91"/>
-      <c r="AS22" s="91"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="91"/>
-      <c r="AV22" s="91"/>
-      <c r="AW22" s="91"/>
-      <c r="AX22" s="91"/>
-      <c r="AY22" s="91"/>
-      <c r="AZ22" s="92"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+      <c r="AW22" s="72"/>
+      <c r="AX22" s="72"/>
+      <c r="AY22" s="72"/>
+      <c r="AZ22" s="73"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="83" t="s">
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="80" t="s">
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S23" s="85"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="87" t="s">
+      <c r="S23" s="77"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="83" t="s">
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="84"/>
-      <c r="AE23" s="84"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="83" t="s">
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="84"/>
-      <c r="AK23" s="84"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="84"/>
-      <c r="AN23" s="84"/>
-      <c r="AO23" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP23" s="91"/>
-      <c r="AQ23" s="91"/>
-      <c r="AR23" s="91"/>
-      <c r="AS23" s="91"/>
-      <c r="AT23" s="91"/>
-      <c r="AU23" s="91"/>
-      <c r="AV23" s="91"/>
-      <c r="AW23" s="91"/>
-      <c r="AX23" s="91"/>
-      <c r="AY23" s="91"/>
-      <c r="AZ23" s="92"/>
-    </row>
-    <row r="24" spans="1:52">
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP23" s="72"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+      <c r="AW23" s="72"/>
+      <c r="AX23" s="72"/>
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="73"/>
+    </row>
+    <row r="24" spans="1:52" ht="39" customHeight="1">
       <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="83" t="s">
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="80" t="s">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="87" t="s">
+      <c r="S24" s="77"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="83" t="s">
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="Z24" s="84"/>
-      <c r="AA24" s="84"/>
-      <c r="AB24" s="84"/>
-      <c r="AC24" s="84"/>
-      <c r="AD24" s="84"/>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="83" t="s">
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
-      <c r="AK24" s="84"/>
-      <c r="AL24" s="84"/>
-      <c r="AM24" s="84"/>
-      <c r="AN24" s="84"/>
-      <c r="AO24" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP24" s="91"/>
-      <c r="AQ24" s="91"/>
-      <c r="AR24" s="91"/>
-      <c r="AS24" s="91"/>
-      <c r="AT24" s="91"/>
-      <c r="AU24" s="91"/>
-      <c r="AV24" s="91"/>
-      <c r="AW24" s="91"/>
-      <c r="AX24" s="91"/>
-      <c r="AY24" s="91"/>
-      <c r="AZ24" s="92"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP24" s="96"/>
+      <c r="AQ24" s="96"/>
+      <c r="AR24" s="96"/>
+      <c r="AS24" s="96"/>
+      <c r="AT24" s="96"/>
+      <c r="AU24" s="96"/>
+      <c r="AV24" s="96"/>
+      <c r="AW24" s="96"/>
+      <c r="AX24" s="96"/>
+      <c r="AY24" s="96"/>
+      <c r="AZ24" s="97"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="83" t="s">
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="80" t="s">
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S25" s="85"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="87" t="s">
+      <c r="S25" s="77"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="83" t="s">
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="83" t="s">
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="84"/>
-      <c r="AO25" s="90"/>
-      <c r="AP25" s="91"/>
-      <c r="AQ25" s="91"/>
-      <c r="AR25" s="91"/>
-      <c r="AS25" s="91"/>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="91"/>
-      <c r="AV25" s="91"/>
-      <c r="AW25" s="91"/>
-      <c r="AX25" s="91"/>
-      <c r="AY25" s="91"/>
-      <c r="AZ25" s="92"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="72"/>
+      <c r="AQ25" s="72"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+      <c r="AW25" s="72"/>
+      <c r="AX25" s="72"/>
+      <c r="AY25" s="72"/>
+      <c r="AZ25" s="73"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="83" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="80" t="s">
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="85"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="87" t="s">
+      <c r="S26" s="77"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="83" t="s">
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="81"/>
+      <c r="Y26" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="83" t="s">
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="84"/>
-      <c r="AK26" s="84"/>
-      <c r="AL26" s="84"/>
-      <c r="AM26" s="84"/>
-      <c r="AN26" s="84"/>
-      <c r="AO26" s="90" t="s">
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="75"/>
+      <c r="AM26" s="75"/>
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="AP26" s="91"/>
-      <c r="AQ26" s="91"/>
-      <c r="AR26" s="91"/>
-      <c r="AS26" s="91"/>
-      <c r="AT26" s="91"/>
-      <c r="AU26" s="91"/>
-      <c r="AV26" s="91"/>
-      <c r="AW26" s="91"/>
-      <c r="AX26" s="91"/>
-      <c r="AY26" s="91"/>
-      <c r="AZ26" s="92"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="72"/>
+      <c r="AZ26" s="73"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="83" t="s">
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="80" t="s">
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S27" s="85"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="87" t="s">
+      <c r="S27" s="77"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="83" t="s">
+      <c r="V27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="83" t="s">
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="84"/>
-      <c r="AJ27" s="84"/>
-      <c r="AK27" s="84"/>
-      <c r="AL27" s="84"/>
-      <c r="AM27" s="84"/>
-      <c r="AN27" s="84"/>
-      <c r="AO27" s="90" t="s">
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="AP27" s="91"/>
-      <c r="AQ27" s="91"/>
-      <c r="AR27" s="91"/>
-      <c r="AS27" s="91"/>
-      <c r="AT27" s="91"/>
-      <c r="AU27" s="91"/>
-      <c r="AV27" s="91"/>
-      <c r="AW27" s="91"/>
-      <c r="AX27" s="91"/>
-      <c r="AY27" s="91"/>
-      <c r="AZ27" s="92"/>
+      <c r="AP27" s="72"/>
+      <c r="AQ27" s="72"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+      <c r="AW27" s="72"/>
+      <c r="AX27" s="72"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="73"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="83" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="80" t="s">
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S28" s="85"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="87" t="s">
+      <c r="S28" s="77"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="83" t="s">
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="83" t="s">
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="84"/>
-      <c r="AJ28" s="84"/>
-      <c r="AK28" s="84"/>
-      <c r="AL28" s="84"/>
-      <c r="AM28" s="84"/>
-      <c r="AN28" s="84"/>
-      <c r="AO28" s="90" t="s">
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="AP28" s="91"/>
-      <c r="AQ28" s="91"/>
-      <c r="AR28" s="91"/>
-      <c r="AS28" s="91"/>
-      <c r="AT28" s="91"/>
-      <c r="AU28" s="91"/>
-      <c r="AV28" s="91"/>
-      <c r="AW28" s="91"/>
-      <c r="AX28" s="91"/>
-      <c r="AY28" s="91"/>
-      <c r="AZ28" s="92"/>
+      <c r="AP28" s="72"/>
+      <c r="AQ28" s="72"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+      <c r="AW28" s="72"/>
+      <c r="AX28" s="72"/>
+      <c r="AY28" s="72"/>
+      <c r="AZ28" s="73"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="83" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="80" t="s">
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S29" s="85"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="87" t="s">
+      <c r="S29" s="77"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="83" t="s">
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="83" t="s">
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
-      <c r="AK29" s="84"/>
-      <c r="AL29" s="84"/>
-      <c r="AM29" s="84"/>
-      <c r="AN29" s="84"/>
-      <c r="AO29" s="90" t="s">
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="AP29" s="91"/>
-      <c r="AQ29" s="91"/>
-      <c r="AR29" s="91"/>
-      <c r="AS29" s="91"/>
-      <c r="AT29" s="91"/>
-      <c r="AU29" s="91"/>
-      <c r="AV29" s="91"/>
-      <c r="AW29" s="91"/>
-      <c r="AX29" s="91"/>
-      <c r="AY29" s="91"/>
-      <c r="AZ29" s="92"/>
+      <c r="AP29" s="72"/>
+      <c r="AQ29" s="72"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+      <c r="AW29" s="72"/>
+      <c r="AX29" s="72"/>
+      <c r="AY29" s="72"/>
+      <c r="AZ29" s="73"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="83"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="84"/>
-      <c r="AK30" s="84"/>
-      <c r="AL30" s="84"/>
-      <c r="AM30" s="84"/>
-      <c r="AN30" s="84"/>
-      <c r="AO30" s="90"/>
-      <c r="AP30" s="91"/>
-      <c r="AQ30" s="91"/>
-      <c r="AR30" s="91"/>
-      <c r="AS30" s="91"/>
-      <c r="AT30" s="91"/>
-      <c r="AU30" s="91"/>
-      <c r="AV30" s="91"/>
-      <c r="AW30" s="91"/>
-      <c r="AX30" s="91"/>
-      <c r="AY30" s="91"/>
-      <c r="AZ30" s="92"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="81"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="75"/>
+      <c r="AL30" s="75"/>
+      <c r="AM30" s="75"/>
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="72"/>
+      <c r="AQ30" s="72"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+      <c r="AW30" s="72"/>
+      <c r="AX30" s="72"/>
+      <c r="AY30" s="72"/>
+      <c r="AZ30" s="73"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="83"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="84"/>
-      <c r="AJ31" s="84"/>
-      <c r="AK31" s="84"/>
-      <c r="AL31" s="84"/>
-      <c r="AM31" s="84"/>
-      <c r="AN31" s="84"/>
-      <c r="AO31" s="90"/>
-      <c r="AP31" s="91"/>
-      <c r="AQ31" s="91"/>
-      <c r="AR31" s="91"/>
-      <c r="AS31" s="91"/>
-      <c r="AT31" s="91"/>
-      <c r="AU31" s="91"/>
-      <c r="AV31" s="91"/>
-      <c r="AW31" s="91"/>
-      <c r="AX31" s="91"/>
-      <c r="AY31" s="91"/>
-      <c r="AZ31" s="92"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="75"/>
+      <c r="AM31" s="75"/>
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="72"/>
+      <c r="AQ31" s="72"/>
+      <c r="AR31" s="72"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="72"/>
+      <c r="AU31" s="72"/>
+      <c r="AV31" s="72"/>
+      <c r="AW31" s="72"/>
+      <c r="AX31" s="72"/>
+      <c r="AY31" s="72"/>
+      <c r="AZ31" s="73"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="83"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="83"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="84"/>
-      <c r="AJ32" s="84"/>
-      <c r="AK32" s="84"/>
-      <c r="AL32" s="84"/>
-      <c r="AM32" s="84"/>
-      <c r="AN32" s="84"/>
-      <c r="AO32" s="90"/>
-      <c r="AP32" s="91"/>
-      <c r="AQ32" s="91"/>
-      <c r="AR32" s="91"/>
-      <c r="AS32" s="91"/>
-      <c r="AT32" s="91"/>
-      <c r="AU32" s="91"/>
-      <c r="AV32" s="91"/>
-      <c r="AW32" s="91"/>
-      <c r="AX32" s="91"/>
-      <c r="AY32" s="91"/>
-      <c r="AZ32" s="92"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="72"/>
+      <c r="AQ32" s="72"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+      <c r="AW32" s="72"/>
+      <c r="AX32" s="72"/>
+      <c r="AY32" s="72"/>
+      <c r="AZ32" s="73"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="83"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="83"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="84"/>
-      <c r="AJ33" s="84"/>
-      <c r="AK33" s="84"/>
-      <c r="AL33" s="84"/>
-      <c r="AM33" s="84"/>
-      <c r="AN33" s="84"/>
-      <c r="AO33" s="90"/>
-      <c r="AP33" s="91"/>
-      <c r="AQ33" s="91"/>
-      <c r="AR33" s="91"/>
-      <c r="AS33" s="91"/>
-      <c r="AT33" s="91"/>
-      <c r="AU33" s="91"/>
-      <c r="AV33" s="91"/>
-      <c r="AW33" s="91"/>
-      <c r="AX33" s="91"/>
-      <c r="AY33" s="91"/>
-      <c r="AZ33" s="92"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="75"/>
+      <c r="AM33" s="75"/>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="72"/>
+      <c r="AQ33" s="72"/>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72"/>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="AW33" s="72"/>
+      <c r="AX33" s="72"/>
+      <c r="AY33" s="72"/>
+      <c r="AZ33" s="73"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="83"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="84"/>
-      <c r="AK34" s="84"/>
-      <c r="AL34" s="84"/>
-      <c r="AM34" s="84"/>
-      <c r="AN34" s="84"/>
-      <c r="AO34" s="90"/>
-      <c r="AP34" s="91"/>
-      <c r="AQ34" s="91"/>
-      <c r="AR34" s="91"/>
-      <c r="AS34" s="91"/>
-      <c r="AT34" s="91"/>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="91"/>
-      <c r="AW34" s="91"/>
-      <c r="AX34" s="91"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="92"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="75"/>
+      <c r="AM34" s="75"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="72"/>
+      <c r="AQ34" s="72"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+      <c r="AW34" s="72"/>
+      <c r="AX34" s="72"/>
+      <c r="AY34" s="72"/>
+      <c r="AZ34" s="73"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="83"/>
-      <c r="Z35" s="84"/>
-      <c r="AA35" s="84"/>
-      <c r="AB35" s="84"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="84"/>
-      <c r="AE35" s="84"/>
-      <c r="AF35" s="84"/>
-      <c r="AG35" s="83"/>
-      <c r="AH35" s="84"/>
-      <c r="AI35" s="84"/>
-      <c r="AJ35" s="84"/>
-      <c r="AK35" s="84"/>
-      <c r="AL35" s="84"/>
-      <c r="AM35" s="84"/>
-      <c r="AN35" s="84"/>
-      <c r="AO35" s="90"/>
-      <c r="AP35" s="91"/>
-      <c r="AQ35" s="91"/>
-      <c r="AR35" s="91"/>
-      <c r="AS35" s="91"/>
-      <c r="AT35" s="91"/>
-      <c r="AU35" s="91"/>
-      <c r="AV35" s="91"/>
-      <c r="AW35" s="91"/>
-      <c r="AX35" s="91"/>
-      <c r="AY35" s="91"/>
-      <c r="AZ35" s="92"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="77"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="72"/>
+      <c r="AQ35" s="72"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72"/>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+      <c r="AW35" s="72"/>
+      <c r="AX35" s="72"/>
+      <c r="AY35" s="72"/>
+      <c r="AZ35" s="73"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="84"/>
-      <c r="AA36" s="84"/>
-      <c r="AB36" s="84"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="84"/>
-      <c r="AE36" s="84"/>
-      <c r="AF36" s="84"/>
-      <c r="AG36" s="83"/>
-      <c r="AH36" s="84"/>
-      <c r="AI36" s="84"/>
-      <c r="AJ36" s="84"/>
-      <c r="AK36" s="84"/>
-      <c r="AL36" s="84"/>
-      <c r="AM36" s="84"/>
-      <c r="AN36" s="84"/>
-      <c r="AO36" s="90"/>
-      <c r="AP36" s="91"/>
-      <c r="AQ36" s="91"/>
-      <c r="AR36" s="91"/>
-      <c r="AS36" s="91"/>
-      <c r="AT36" s="91"/>
-      <c r="AU36" s="91"/>
-      <c r="AV36" s="91"/>
-      <c r="AW36" s="91"/>
-      <c r="AX36" s="91"/>
-      <c r="AY36" s="91"/>
-      <c r="AZ36" s="92"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="75"/>
+      <c r="AL36" s="75"/>
+      <c r="AM36" s="75"/>
+      <c r="AN36" s="75"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="72"/>
+      <c r="AQ36" s="72"/>
+      <c r="AR36" s="72"/>
+      <c r="AS36" s="72"/>
+      <c r="AT36" s="72"/>
+      <c r="AU36" s="72"/>
+      <c r="AV36" s="72"/>
+      <c r="AW36" s="72"/>
+      <c r="AX36" s="72"/>
+      <c r="AY36" s="72"/>
+      <c r="AZ36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="211">
-    <mergeCell ref="AO35:AZ35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="Y36:AF36"/>
-    <mergeCell ref="AG36:AN36"/>
-    <mergeCell ref="AO36:AZ36"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:Q35"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="AG35:AN35"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:Q34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="Y34:AF34"/>
-    <mergeCell ref="AG34:AN34"/>
-    <mergeCell ref="AO34:AZ34"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="Y33:AF33"/>
-    <mergeCell ref="AG33:AN33"/>
-    <mergeCell ref="AO33:AZ33"/>
-    <mergeCell ref="AO31:AZ31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="J32:Q32"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="Y32:AF32"/>
-    <mergeCell ref="AG32:AN32"/>
-    <mergeCell ref="AO32:AZ32"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:Q31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="Y31:AF31"/>
-    <mergeCell ref="AG31:AN31"/>
-    <mergeCell ref="AO29:AZ29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="Y30:AF30"/>
-    <mergeCell ref="AG30:AN30"/>
-    <mergeCell ref="AO30:AZ30"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="Y29:AF29"/>
-    <mergeCell ref="AG29:AN29"/>
-    <mergeCell ref="AO27:AZ27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="Y28:AF28"/>
-    <mergeCell ref="AG28:AN28"/>
-    <mergeCell ref="AO28:AZ28"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:Q27"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="Y27:AF27"/>
-    <mergeCell ref="AG27:AN27"/>
-    <mergeCell ref="AO25:AZ25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:Q26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="Y26:AF26"/>
-    <mergeCell ref="AG26:AN26"/>
-    <mergeCell ref="AO26:AZ26"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:Q25"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="Y25:AF25"/>
-    <mergeCell ref="AG25:AN25"/>
-    <mergeCell ref="AO23:AZ23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Y24:AF24"/>
-    <mergeCell ref="AG24:AN24"/>
-    <mergeCell ref="AO24:AZ24"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:Q23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="Y23:AF23"/>
-    <mergeCell ref="AG23:AN23"/>
-    <mergeCell ref="AO21:AZ21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:Q22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AF22"/>
-    <mergeCell ref="AG22:AN22"/>
-    <mergeCell ref="AO22:AZ22"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AF21"/>
-    <mergeCell ref="AG21:AN21"/>
-    <mergeCell ref="AO19:AZ19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Y20:AF20"/>
-    <mergeCell ref="AG20:AN20"/>
-    <mergeCell ref="AO20:AZ20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="Y19:AF19"/>
-    <mergeCell ref="AG19:AN19"/>
-    <mergeCell ref="AO17:AZ17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:AF18"/>
-    <mergeCell ref="AG18:AN18"/>
-    <mergeCell ref="AO18:AZ18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="AG17:AN17"/>
-    <mergeCell ref="AO15:AZ15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="Y16:AF16"/>
-    <mergeCell ref="AG16:AN16"/>
-    <mergeCell ref="AO16:AZ16"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="Y15:AF15"/>
-    <mergeCell ref="AG15:AN15"/>
-    <mergeCell ref="AO13:AZ13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="Y14:AF14"/>
-    <mergeCell ref="AG14:AN14"/>
-    <mergeCell ref="AO14:AZ14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="Y13:AF13"/>
-    <mergeCell ref="AG13:AN13"/>
-    <mergeCell ref="AO11:AZ11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Y12:AF12"/>
-    <mergeCell ref="AG12:AN12"/>
-    <mergeCell ref="AO12:AZ12"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Y11:AF11"/>
-    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="P8:U8"/>
@@ -10353,11 +12158,188 @@
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AU3:AZ3"/>
+    <mergeCell ref="AO11:AZ11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Y12:AF12"/>
+    <mergeCell ref="AG12:AN12"/>
+    <mergeCell ref="AO12:AZ12"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="Y11:AF11"/>
+    <mergeCell ref="AG11:AN11"/>
+    <mergeCell ref="AO13:AZ13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="Y14:AF14"/>
+    <mergeCell ref="AG14:AN14"/>
+    <mergeCell ref="AO14:AZ14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="Y13:AF13"/>
+    <mergeCell ref="AG13:AN13"/>
+    <mergeCell ref="AO15:AZ15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="Y16:AF16"/>
+    <mergeCell ref="AG16:AN16"/>
+    <mergeCell ref="AO16:AZ16"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="Y15:AF15"/>
+    <mergeCell ref="AG15:AN15"/>
+    <mergeCell ref="AO17:AZ17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:AF18"/>
+    <mergeCell ref="AG18:AN18"/>
+    <mergeCell ref="AO18:AZ18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="AG17:AN17"/>
+    <mergeCell ref="AO19:AZ19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Y20:AF20"/>
+    <mergeCell ref="AG20:AN20"/>
+    <mergeCell ref="AO20:AZ20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:Q19"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="Y19:AF19"/>
+    <mergeCell ref="AG19:AN19"/>
+    <mergeCell ref="AO21:AZ21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:Q22"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AF22"/>
+    <mergeCell ref="AG22:AN22"/>
+    <mergeCell ref="AO22:AZ22"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AF21"/>
+    <mergeCell ref="AG21:AN21"/>
+    <mergeCell ref="AO23:AZ23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Y24:AF24"/>
+    <mergeCell ref="AG24:AN24"/>
+    <mergeCell ref="AO24:AZ24"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:Q23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="Y23:AF23"/>
+    <mergeCell ref="AG23:AN23"/>
+    <mergeCell ref="AO25:AZ25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:Q26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="Y26:AF26"/>
+    <mergeCell ref="AG26:AN26"/>
+    <mergeCell ref="AO26:AZ26"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:Q25"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="Y25:AF25"/>
+    <mergeCell ref="AG25:AN25"/>
+    <mergeCell ref="AO27:AZ27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="Y28:AF28"/>
+    <mergeCell ref="AG28:AN28"/>
+    <mergeCell ref="AO28:AZ28"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="Y27:AF27"/>
+    <mergeCell ref="AG27:AN27"/>
+    <mergeCell ref="AO29:AZ29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="Y30:AF30"/>
+    <mergeCell ref="AG30:AN30"/>
+    <mergeCell ref="AO30:AZ30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="Y29:AF29"/>
+    <mergeCell ref="AG29:AN29"/>
+    <mergeCell ref="AO31:AZ31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="J32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="Y32:AF32"/>
+    <mergeCell ref="AG32:AN32"/>
+    <mergeCell ref="AO32:AZ32"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="Y31:AF31"/>
+    <mergeCell ref="AG31:AN31"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="Y34:AF34"/>
+    <mergeCell ref="AG34:AN34"/>
+    <mergeCell ref="AO34:AZ34"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="Y33:AF33"/>
+    <mergeCell ref="AG33:AN33"/>
+    <mergeCell ref="AO33:AZ33"/>
+    <mergeCell ref="AO35:AZ35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="Y36:AF36"/>
+    <mergeCell ref="AG36:AN36"/>
+    <mergeCell ref="AO36:AZ36"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:Q35"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="AG35:AN35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
